--- a/Doc/Plan01/用例信息分工.xlsx
+++ b/Doc/Plan01/用例信息分工.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zihan Xu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zihan Xu\Documents\myLib\Courses\软工\SE_Project_Dawn\Doc\Plan01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -577,7 +576,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
